--- a/Password Times.xlsx
+++ b/Password Times.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55A86C38-720D-4233-87A9-9EC7E89874DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Multithread</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>CUDA</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -45,12 +69,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +530,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" customWidth="1"/>
+    <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.15234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>806.45963300000005</v>
+      </c>
+      <c r="D2" s="5">
+        <v>27936.439836000001</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>786.33485020000001</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>28156.777864</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>810.34952950000002</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>800.49295600000005</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>799.23055920000002</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>820.44235530000003</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>807.45296810000002</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>802.49402850000001</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>811.48593860000005</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>796.23942030000001</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15">
+        <f>AVERAGE(B2:B11)</f>
+        <v>804.09822387000008</v>
+      </c>
+      <c r="C12" s="14" t="e">
+        <f>AVERAGE(C2:C11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="13">
+        <f>AVERAGE(D2:D11)</f>
+        <v>28046.608850000001</v>
+      </c>
+      <c r="E12" s="12" t="e">
+        <f>AVERAGE(E2:E11)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Password Times.xlsx
+++ b/Password Times.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55A86C38-720D-4233-87A9-9EC7E89874DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B14F698E-2CF9-4CEE-8E01-8946132644B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -570,6 +570,9 @@
       <c r="B2" s="5">
         <v>806.45963300000005</v>
       </c>
+      <c r="C2">
+        <v>5214</v>
+      </c>
       <c r="D2" s="5">
         <v>27936.439836000001</v>
       </c>
@@ -684,9 +687,9 @@
         <f>AVERAGE(B2:B11)</f>
         <v>804.09822387000008</v>
       </c>
-      <c r="C12" s="14" t="e">
+      <c r="C12" s="14">
         <f>AVERAGE(C2:C11)</f>
-        <v>#DIV/0!</v>
+        <v>5214</v>
       </c>
       <c r="D12" s="13">
         <f>AVERAGE(D2:D11)</f>
